--- a/docs/movie_theater_database_structure.xlsx
+++ b/docs/movie_theater_database_structure.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Movies" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Screenings" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Reservations" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Clients" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Theaters" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Auditoriums" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Seats" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Auditoriums" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Clients" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Movies" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Reservations" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Screenings" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Seats" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Theaters" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,11 +17,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>theater_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>number_of_seats</t>
+  </si>
+  <si>
+    <t>screen_quality</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>account_creation_date</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -34,7 +64,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>cast</t>
+    <t>actors</t>
   </si>
   <si>
     <t>language_version</t>
@@ -61,16 +91,34 @@
     <t>available_until</t>
   </si>
   <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>screening_id</t>
+  </si>
+  <si>
+    <t>seat_id</t>
+  </si>
+  <si>
+    <t>is_paid</t>
+  </si>
+  <si>
+    <t>purchase_date</t>
+  </si>
+  <si>
+    <t>purchase_time</t>
+  </si>
+  <si>
+    <t>purchase_location</t>
+  </si>
+  <si>
     <t>move_id</t>
   </si>
   <si>
     <t>auditorium_id</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>start_time</t>
   </si>
   <si>
     <t>regular_ticket_price</t>
@@ -79,43 +127,13 @@
     <t>reduced_ticket_price</t>
   </si>
   <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>screening_id</t>
-  </si>
-  <si>
-    <t>seat_id</t>
-  </si>
-  <si>
-    <t>is_paid</t>
-  </si>
-  <si>
-    <t>purchase_date</t>
-  </si>
-  <si>
-    <t>purchase_time</t>
-  </si>
-  <si>
-    <t>purchase_location</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>account_creation_date</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>number</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>theater_name</t>
   </si>
   <si>
     <t>city</t>
@@ -131,24 +149,6 @@
   </si>
   <si>
     <t>closing_date</t>
-  </si>
-  <si>
-    <t>theater_id</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>number_of_seats</t>
-  </si>
-  <si>
-    <t>screen_quality</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>row</t>
   </si>
 </sst>
 </file>
@@ -193,12 +193,12 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -446,11 +446,137 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="2.25"/>
+    <col customWidth="1" min="2" max="2" width="8.38"/>
+    <col customWidth="1" min="3" max="3" width="5.13"/>
+    <col customWidth="1" min="4" max="4" width="4.25"/>
+    <col customWidth="1" min="5" max="5" width="13.88"/>
+    <col customWidth="1" min="6" max="6" width="11.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.25"/>
+    <col customWidth="1" min="2" max="2" width="4.5"/>
+    <col customWidth="1" min="3" max="3" width="5.0"/>
+    <col customWidth="1" min="4" max="4" width="17.88"/>
+    <col customWidth="1" min="5" max="6" width="8.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.25"/>
     <col customWidth="1" min="2" max="2" width="3.63"/>
     <col customWidth="1" min="3" max="3" width="7.0"/>
     <col customWidth="1" min="4" max="4" width="10.63"/>
     <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="6" max="6" width="4.0"/>
+    <col customWidth="1" min="6" max="6" width="5.5"/>
     <col customWidth="1" min="7" max="7" width="14.13"/>
     <col customWidth="1" min="8" max="8" width="12.38"/>
     <col customWidth="1" min="9" max="9" width="5.88"/>
@@ -462,60 +588,60 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
@@ -569,73 +695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="2.25"/>
-    <col customWidth="1" min="2" max="2" width="7.25"/>
-    <col customWidth="1" min="3" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="4" width="4.25"/>
-    <col customWidth="1" min="5" max="5" width="4.13"/>
-    <col customWidth="1" min="6" max="6" width="15.5"/>
-    <col customWidth="1" min="7" max="7" width="16.38"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -656,110 +716,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="2.25"/>
-    <col customWidth="1" min="2" max="2" width="4.5"/>
-    <col customWidth="1" min="3" max="3" width="5.0"/>
-    <col customWidth="1" min="4" max="4" width="17.88"/>
-    <col customWidth="1" min="5" max="6" width="8.75"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -777,56 +775,52 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="2.25"/>
-    <col customWidth="1" min="2" max="2" width="5.13"/>
-    <col customWidth="1" min="3" max="3" width="3.5"/>
-    <col customWidth="1" min="4" max="4" width="5.13"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="11.13"/>
-    <col customWidth="1" min="7" max="7" width="10.38"/>
+    <col customWidth="1" min="2" max="2" width="7.25"/>
+    <col customWidth="1" min="3" max="3" width="11.0"/>
+    <col customWidth="1" min="4" max="4" width="8.38"/>
+    <col customWidth="1" min="5" max="5" width="15.5"/>
+    <col customWidth="1" min="6" max="7" width="16.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -834,70 +828,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="2.25"/>
-    <col customWidth="1" min="2" max="2" width="8.38"/>
-    <col customWidth="1" min="3" max="3" width="5.13"/>
-    <col customWidth="1" min="4" max="4" width="4.25"/>
-    <col customWidth="1" min="5" max="5" width="13.88"/>
-    <col customWidth="1" min="6" max="6" width="11.75"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -914,42 +844,109 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.25"/>
+    <col customWidth="1" min="2" max="2" width="11.25"/>
+    <col customWidth="1" min="3" max="3" width="3.5"/>
+    <col customWidth="1" min="4" max="4" width="5.13"/>
+    <col customWidth="1" min="5" max="5" width="10.0"/>
+    <col customWidth="1" min="6" max="6" width="11.13"/>
+    <col customWidth="1" min="7" max="7" width="10.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
